--- a/documentation/Risk Assessment IMS.xlsx
+++ b/documentation/Risk Assessment IMS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>IMS Risk Assessment</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Use a chair with sufficient lumbar support, or use furniture that supports better posture</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure fire alarms are armed and are powered with regular checks </t>
   </si>
 </sst>
 </file>
@@ -137,11 +143,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FFFFFF00"/>
       <name val="Arial"/>
@@ -150,17 +156,29 @@
       <color rgb="FFCCCCCC"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -336,19 +354,19 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -360,58 +378,60 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="7" fillId="11" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="9" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="10" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -758,14 +778,14 @@
       <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="H8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="33"/>
@@ -775,15 +795,15 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="F9" s="19"/>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10">
       <c r="B10" s="1">
@@ -795,16 +815,17 @@
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="30"/>
-      <c r="I10" s="44"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="12"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
     <row r="11">
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="I11" s="44"/>
+      <c r="F11" s="19"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
     <row r="12">
@@ -817,9 +838,9 @@
       <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="28"/>
-      <c r="I12" s="44"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13">
@@ -827,7 +848,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="I13" s="44"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14">
@@ -840,7 +861,7 @@
       <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15">
@@ -859,14 +880,14 @@
       <c r="D16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="44"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
     <row r="17">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="19"/>
@@ -877,7 +898,7 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18">
-      <c r="B18" s="1">
+      <c r="B18" s="46">
         <v>8.0</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -886,7 +907,7 @@
       <c r="D18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="12"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -902,17 +923,17 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20">
-      <c r="B20" s="1">
+      <c r="B20" s="46">
         <v>9.0</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21">
       <c r="C21" s="19"/>
@@ -920,46 +941,67 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
+    <row r="22">
+      <c r="B22" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="I4:I9"/>
     <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
